--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="880">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="880">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31764,34 +31764,34 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>85</v>
@@ -31800,7 +31800,7 @@
         <v>85</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>85</v>
@@ -31809,28 +31809,28 @@
         <v>85</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>85</v>
@@ -31839,10 +31839,10 @@
         <v>85</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>85</v>
@@ -31851,25 +31851,25 @@
         <v>85</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>85</v>
@@ -33049,10 +33049,10 @@
         <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>85</v>
@@ -33061,43 +33061,43 @@
         <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>85</v>
@@ -33106,10 +33106,10 @@
         <v>85</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>85</v>
@@ -33121,22 +33121,22 @@
         <v>85</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>85</v>
@@ -33145,10 +33145,10 @@
         <v>85</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26">
@@ -33156,13 +33156,13 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>85</v>
@@ -33171,10 +33171,10 @@
         <v>85</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>85</v>
@@ -33207,7 +33207,7 @@
         <v>85</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>85</v>
@@ -33216,10 +33216,10 @@
         <v>85</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>85</v>
@@ -33228,13 +33228,13 @@
         <v>85</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AC26" s="5" t="s">
         <v>85</v>
@@ -33246,7 +33246,7 @@
         <v>85</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>85</v>
@@ -33255,10 +33255,10 @@
         <v>85</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>85</v>
@@ -34664,115 +34664,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="40">
@@ -34780,115 +34780,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
@@ -34896,115 +34896,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>112</v>
+        <v>360</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>112</v>
+        <v>383</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>112</v>
+        <v>432</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>112</v>
+        <v>480</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>112</v>
+        <v>505</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>112</v>
+        <v>552</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>112</v>
+        <v>578</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>112</v>
+        <v>609</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>112</v>
+        <v>622</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>112</v>
+        <v>669</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>112</v>
+        <v>693</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>112</v>
+        <v>719</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>112</v>
+        <v>745</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>112</v>
+        <v>771</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>112</v>
+        <v>796</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>112</v>
+        <v>820</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>112</v>
+        <v>846</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>112</v>
+        <v>871</v>
       </c>
     </row>
     <row r="42">
